--- a/DigGame/Assets/Resources/DigGameLanguage.xlsx
+++ b/DigGame/Assets/Resources/DigGameLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.73.43337"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="410" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="400" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63000000" defaultRowHeight="15.750000" customHeight="1"/>
